--- a/data/long_razon/P24_3-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_3-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-50,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-59,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-37,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 386,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-87,81; 89,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 466,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-84,1; -7,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 285,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 317,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,06; 20,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,12; 96,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 195,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>296,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-61,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-52,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-56,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,68; 1080,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,92; 95,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,42; 10,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 169,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,16; 253,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,68; -5,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 283,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 78,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,65; -21,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-51,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-37,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-23,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 297,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-79,75; -2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-49,27; 79,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,69; 65,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,53; 76,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-64,91; 11,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 126,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,14; 1,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-50,1; 16,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>59,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,2; 104,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,83; 176,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 35,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,77; 37,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 186,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 70,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 45,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 122,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 38,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>83,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>149,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>117,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 323,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 251,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 74,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,76; 516,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 111,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 171,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,62; 289,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 137,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 79,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>113,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 179,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 197,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,39; 32,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,87; 275,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 108,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 133,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,94; 189,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 91,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 66,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>59,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,52; 139,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 34,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 57,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 58,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 37,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,53; 71,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 31,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 16,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P24_3-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_3-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.3356699542979046</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.7440136536791918</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.8889628678628355</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.3361016231283984</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.1431518273160675</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.5994086753578726</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.6724373484300119</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.2955719406862617</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.7695987978373141</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3436389264101893</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.3492408895176989</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.3516782848999723</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.5796605523404504</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.1561521425576161</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.2212448374663874</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.6221090192083446</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.9619999922569139</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3946115588989605</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.8268414053964745</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.6682681513091876</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.8799157325408251</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3436781216192081</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.5493720398679506</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.323787010307758</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.5227206504879818</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.677470747079839</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.7225727615271641</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.1911177112210932</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.3847996810076934</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.5105988361084688</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>4.524900249275062</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.06652946627444054</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.121356343095083</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.20787788924164</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.073545369850263</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.04424928354594993</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>3.739090941876415</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>2.340881230573898</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>3.618957177489686</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>2.343791843112583</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.2532760740283502</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.4160296248925608</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>2.5204003144849</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1.360414992053022</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>1.505339414113405</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>3.647824752025264</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1921059730037808</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.6105870398728394</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.838224367758268</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.3318785530702683</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1127904870894951</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3934344522919847</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.5223744671470004</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>2.720433209969685</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.07958181343003844</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>1.124700109304931</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.04703224405550341</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.5668190307386483</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>2.191649717848924</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.2117167729984394</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,49 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>0.621317910171811</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.6682481803261279</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.8896624242348636</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.07156050507261132</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-0.5134330470284336</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4329040823445336</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.7873965237225224</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.4625210636885774</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.6331546312312204</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.1775881172677863</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.4338589896680073</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.7747738528909922</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.5511772772752628</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.6602088211314098</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +950,49 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>15.83132644467523</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.9009500567262488</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.01833745525038175</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.686323304791653</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>1.352363383884138</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2.476232512651664</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.03903443891763014</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>10.25164808956651</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.138310326316896</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>2.965020538738536</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.8039171306897408</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>-0.2156271981323561</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>6.585701036043952</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.8106604083419436</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1005,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.09441046232419877</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.461239561478427</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.03750477680412558</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.6579825231028523</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>3.3559499438411</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.152330154847622</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.165659934088525</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.3926683004963117</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.0475583752827877</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.2134379319744091</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.03437548301328382</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.3310316980317444</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.2338122734523586</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.3127171279699809</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.8556001033462439</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1058,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.4819716899238194</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.7535722057731461</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.501951350590944</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1398119565346844</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7942731966346539</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.5474737780649317</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5829605661104027</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.679934066977485</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.384666057972558</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.6453925483492945</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3842923793902151</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.5844335081172826</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.4676551600008703</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.1505638589339297</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>0.1600916958865322</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1111,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.361119253126499</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.08517235763705736</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.7590110510815485</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.031106038925294</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>11.20599613056816</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.4321587937237846</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.5339862512804396</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.08305999293906316</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.7432425479171134</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.5735633052988527</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.5375766089529409</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.04373042623970225</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.1664840705162327</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.9050682557262032</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>2.360090583888412</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1168,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.09244609784460477</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4490093032415096</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1151058247288548</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2995653970834686</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.146085069218931</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1125695749256275</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.5951142565279407</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1211706030481318</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.4844277938598797</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>1.487589687106251</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.033836863205363</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.5142513347630649</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.01259335613767858</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.3907045121134233</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.3485570448966813</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1221,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.3757366604997799</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4031403541169123</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4406516085646565</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2853325761018323</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.594794821237273</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.4451479105591291</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.05627896314029707</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.285375943002326</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.0985689981815266</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.3974888594809549</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.3296494178535819</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.1000748249925328</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.2862350528348752</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.05968797444697086</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.140152518680904</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1274,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.9361220571476334</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.697899916636179</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4309617716536345</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.430111440754371</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.561051123434667</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.4086232182903048</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.025136803528278</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.7974312700774068</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>1.597918884206093</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>3.841341975669361</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.3647676172005119</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.346420483727479</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.3391852970772776</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>1.001630625048201</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>1.15046409361715</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1331,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.9209192562367149</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.8026020485827063</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.05915269800776632</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.4749502595913069</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.09476906977563938</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>1.505312869440434</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.06725940975872599</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.5834594368163409</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.6395730139743839</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.3919669354958902</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>1.224025698694412</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.4129631079283397</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.2899609602741763</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>0.5575783382524849</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.2366160966559126</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1384,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.1743742941608632</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.07783534809687084</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.3269878460769953</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.1580472301092007</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4204227268700899</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0.2580581856579917</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.5022110012854034</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>0.01553994647968837</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.1464373081558831</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.1750985799846998</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>0.3007730556410698</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.1019891210963843</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.03178108285341466</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>0.0005617379667197996</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.1295625524644272</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1437,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>3.225439686584807</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.642557351488141</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.7197920580765792</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.79595620019884</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.014024630242845</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>4.736780593741476</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.074583899514129</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.714394897372617</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>2.079373068109472</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>1.437312538467323</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>2.859263875917455</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.277304590271771</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.8422796964515514</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>1.394455998426849</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.8389549457207034</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1494,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.5167584699747103</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.2326719676776933</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.2227765383033341</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.6914618834184604</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.30512543169277</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1.139436025821191</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.3076014341645676</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.3906864242123658</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>1.343163668209965</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>2.169530667299165</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.8882915897228848</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.2855622179388234</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.102695185436624</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>1.041388209140719</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>1.803968415837939</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1547,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.2260507105636276</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.405508683216262</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.5887219508331557</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.1618485851088533</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.04972917203802937</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>0.2584965634204646</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.244006437785455</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.1735458439502526</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>0.1965627626474787</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>0.2849057058588885</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>0.2286967743481273</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.2241560075693015</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.2796792247533236</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>0.3263835512853682</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>0.4643708770084881</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1600,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>2.020745303819834</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.69986600742202</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.322017806757647</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.693363401598068</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>4.411007195136878</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>2.846639187529416</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.203330338782457</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.220143400367518</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>3.60212986570036</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>7.224156805495769</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>2.058954193773797</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.9463965076836293</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.6035510101943284</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>2.431194244179187</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>4.169781160311742</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1657,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.5654566947562221</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.08803328764190547</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1001128856088519</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4831207720481308</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3562519122635938</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.1968591185975676</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.2639360591337646</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.08599568451846065</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.7327488111149579</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.6686560006591542</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.3412686974636696</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.08340944078348966</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>-0.008057415952867368</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.6098653713677288</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.5028260394487279</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1710,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>0.1136721214669879</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.3365556908262125</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.2925178206124449</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.09502992704262403</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.03645086553013627</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.07464651993383832</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.02081912445066577</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1470215177676335</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.3359052346249677</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.2401110114730273</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.08570015212380948</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.1390240961873096</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.1771076049046264</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>0.325022815130355</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>0.1836571702932875</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1763,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>1.177488046818408</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2673504897741346</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1494142214879116</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.9954568642361736</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.8809417918660349</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.5399898065386342</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.6927866787446875</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.3815299598706468</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>1.261392813130263</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>1.240972307142024</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.643153517908619</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.3209157545452366</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.179218133747246</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.9623999686843798</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.8972255908213581</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
